--- a/docs/sprint_2/sprint_2_michael_osman.xlsx
+++ b/docs/sprint_2/sprint_2_michael_osman.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/projet_web_2/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/projet_web_2/docs/sprint_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date début</t>
   </si>
@@ -217,28 +217,10 @@
     <t xml:space="preserve">Estimation Initiale </t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>&lt;=  Unités Scrum Restantes</t>
   </si>
   <si>
     <t>Prévision</t>
-  </si>
-  <si>
-    <t>Creation du quiz</t>
-  </si>
-  <si>
-    <t>Validation du quiz</t>
-  </si>
-  <si>
-    <t>Systeme de notification AJAX pour les publications</t>
   </si>
   <si>
     <t>Sprint 2</t>
@@ -851,19 +833,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -956,11 +938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1413348128"/>
-        <c:axId val="1451882544"/>
+        <c:axId val="443644704"/>
+        <c:axId val="478736960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1413348128"/>
+        <c:axId val="443644704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451882544"/>
+        <c:crossAx val="478736960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1451882544"/>
+        <c:axId val="478736960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1413348128"/>
+        <c:crossAx val="443644704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1244,7 +1226,7 @@
         <xdr:cNvPr id="2" name="Graphique 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE58243B-8D48-4822-87EB-A25382F2DE62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE58243B-8D48-4822-87EB-A25382F2DE62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,10 +1260,10 @@
       <sheetName val="system sheet"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="10">
           <cell r="G10">
@@ -1614,7 +1596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1612,7 @@
     <row r="1" spans="1:88" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1653,7 +1635,7 @@
     <row r="2" spans="1:88" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1696,7 +1678,7 @@
       </c>
       <c r="D3" s="7">
         <f>D15</f>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1892,110 +1874,50 @@
       <c r="CJ6" s="6"/>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17">
-        <v>95</v>
-      </c>
-      <c r="D7" s="18">
-        <v>15</v>
-      </c>
-      <c r="E7" s="25">
-        <v>12</v>
-      </c>
-      <c r="F7" s="19">
-        <v>8</v>
-      </c>
-      <c r="G7" s="19">
-        <v>8</v>
-      </c>
-      <c r="H7" s="19">
-        <v>7</v>
-      </c>
-      <c r="I7" s="19">
-        <v>2</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="22">
-        <v>85</v>
-      </c>
-      <c r="D8" s="23">
-        <v>3</v>
-      </c>
-      <c r="E8" s="25">
-        <v>3</v>
-      </c>
-      <c r="F8" s="19">
-        <v>3</v>
-      </c>
-      <c r="G8" s="19">
-        <v>3</v>
-      </c>
-      <c r="H8" s="19">
-        <v>3</v>
-      </c>
-      <c r="I8" s="19">
-        <v>3</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:88" ht="22" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="22">
-        <v>98</v>
-      </c>
-      <c r="D9" s="18">
-        <v>5</v>
-      </c>
-      <c r="E9" s="25">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19">
-        <v>5</v>
-      </c>
-      <c r="H9" s="19">
-        <v>5</v>
-      </c>
-      <c r="I9" s="19">
-        <v>5</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="B10" s="21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" s="22">
         <v>93</v>
@@ -2081,34 +2003,34 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33">
         <f t="shared" ref="D15:J15" si="0">SUM(D7:D14)</f>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F15" s="33">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G15" s="33">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H15" s="33">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I15" s="33">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J15" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2193,7 +2115,7 @@
       <c r="B16" s="31"/>
       <c r="C16" s="35"/>
       <c r="D16" s="36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" s="37">
         <f>'[1]system sheet'!G10</f>
@@ -4783,7 +4705,7 @@
   <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:A10" numberStoredAsText="1"/>
+    <ignoredError sqref="A10" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
